--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/SuperGroupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/SuperGroupes.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>9040000000</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/SuperGroupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/SuperGroupes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Groupes.slk" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
